--- a/la_hacks/House of Representatives Twitter Handles.xlsx
+++ b/la_hacks/House of Representatives Twitter Handles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="252">
   <si>
     <t>US House of Representatives Twitter Handles 115th Congress</t>
   </si>
@@ -347,9 +347,6 @@
     <t>KY Representative Harold Rogers @RepHalRogers</t>
   </si>
   <si>
-    <t>KY Representative James Comer Facebook: http://facebook.com/congressmancomer</t>
-  </si>
-  <si>
     <t>LA Representative Ralph Abraham @CongressmanRalphAbraham</t>
   </si>
   <si>
@@ -357,9 +354,6 @@
   </si>
   <si>
     <t>LA Representative Clay Higgins @CaptClayHiggins</t>
-  </si>
-  <si>
-    <t>LA Representative Mike Johnson Facebook: http://facebook.com/repmikejohnson</t>
   </si>
   <si>
     <t>MD Representative Andrew Harris @RepAndyHarrisMD</t>
@@ -1138,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A265"/>
+  <dimension ref="A1:A263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="A122" sqref="A122:XFD122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2464,16 +2458,6 @@
         <v>251</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A264" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A265" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
